--- a/PrzepisSaved.xlsx
+++ b/PrzepisSaved.xlsx
@@ -3,22 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11693" windowWidth="10391" xWindow="14504" yWindow="1555"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11692" windowWidth="9550" xWindow="1486" yWindow="1233"/>
   </bookViews>
   <sheets>
     <sheet name="Pasztet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Befsztyk Tatarski" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -53,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -392,7 +403,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -601,4 +612,181 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="14.69921875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Składniki:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ilość</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Jednostka</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Wołowina</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Magi</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>łyżeczka</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bombal fresh</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pieprz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sól</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Olej</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Woda/Lód</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>